--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T08:32:40+00:00</t>
+    <t>2024-04-22T07:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:26:57+00:00</t>
+    <t>2024-04-22T07:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:52:09+00:00</t>
+    <t>2024-04-22T09:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="597">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T09:18:07+00:00</t>
+    <t>2024-04-22T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -478,9 +478,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre d'OncoFAIR</t>
-  </si>
-  <si>
-    <t>D/H precription</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -3441,7 +3438,7 @@
         <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -3461,14 +3458,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3490,16 +3487,16 @@
         <v>137</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -3548,7 +3545,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3583,10 +3580,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3609,16 +3606,16 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3668,7 +3665,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3683,30 +3680,30 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AO12" t="s" s="2">
+      <c r="AP12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3732,10 +3729,10 @@
         <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3786,34 +3783,34 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI13" t="s" s="2">
+      <c r="AJ13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>79</v>
@@ -3821,14 +3818,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3850,13 +3847,13 @@
         <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3897,7 +3894,7 @@
         <v>140</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>79</v>
@@ -3906,7 +3903,7 @@
         <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3933,7 +3930,7 @@
         <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -3941,10 +3938,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3970,16 +3967,16 @@
         <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -4007,28 +4004,28 @@
         <v>114</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -4055,7 +4052,7 @@
         <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>135</v>
@@ -4063,10 +4060,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4089,19 +4086,19 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -4126,31 +4123,31 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -4177,18 +4174,18 @@
         <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4214,16 +4211,16 @@
         <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -4236,43 +4233,43 @@
         <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4299,18 +4296,18 @@
         <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AP17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4333,16 +4330,16 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4356,52 +4353,52 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>102</v>
@@ -4419,18 +4416,18 @@
         <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4453,13 +4450,13 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4510,7 +4507,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4537,18 +4534,18 @@
         <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4571,16 +4568,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4630,7 +4627,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4657,18 +4654,18 @@
         <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AP20" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4691,13 +4688,13 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4748,7 +4745,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4763,19 +4760,19 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -4783,10 +4780,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4809,13 +4806,13 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4866,7 +4863,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4884,16 +4881,16 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>79</v>
@@ -4901,10 +4898,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4927,17 +4924,17 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4986,7 +4983,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -5004,16 +5001,16 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -5021,10 +5018,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5050,13 +5047,13 @@
         <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5085,11 +5082,11 @@
         <v>114</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5106,7 +5103,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>90</v>
@@ -5124,16 +5121,16 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -5141,10 +5138,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5167,16 +5164,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5202,14 +5199,14 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5226,7 +5223,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5244,16 +5241,16 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>79</v>
@@ -5261,10 +5258,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5287,13 +5284,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5344,7 +5341,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5371,7 +5368,7 @@
         <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>79</v>
@@ -5379,10 +5376,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5408,13 +5405,13 @@
         <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5443,11 +5440,11 @@
         <v>114</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5464,7 +5461,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>90</v>
@@ -5482,16 +5479,16 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -5499,10 +5496,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5525,16 +5522,16 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5560,14 +5557,14 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5584,7 +5581,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5605,13 +5602,13 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5619,10 +5616,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5648,10 +5645,10 @@
         <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5681,11 +5678,11 @@
         <v>114</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5702,7 +5699,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5720,16 +5717,16 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5737,10 +5734,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5763,16 +5760,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5822,7 +5819,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5849,7 +5846,7 @@
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -5857,10 +5854,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5883,16 +5880,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5918,14 +5915,14 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>90</v>
@@ -5960,27 +5957,27 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AO31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6003,16 +6000,16 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6062,7 +6059,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>90</v>
@@ -6080,27 +6077,27 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AO32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6123,13 +6120,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6180,7 +6177,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6207,7 +6204,7 @@
         <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>79</v>
@@ -6215,10 +6212,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6241,16 +6238,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6300,7 +6297,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6315,30 +6312,30 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6361,16 +6358,16 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6408,7 +6405,7 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
@@ -6418,7 +6415,7 @@
         <v>141</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6436,16 +6433,16 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -6453,13 +6450,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>79</v>
@@ -6481,16 +6478,16 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6540,7 +6537,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6555,19 +6552,19 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
@@ -6575,10 +6572,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6604,10 +6601,10 @@
         <v>92</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6619,7 +6616,7 @@
         <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>79</v>
@@ -6658,34 +6655,34 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI37" t="s" s="2">
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6693,14 +6690,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6722,13 +6719,13 @@
         <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="N38" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6769,7 +6766,7 @@
         <v>140</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>79</v>
@@ -6778,7 +6775,7 @@
         <v>141</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6805,7 +6802,7 @@
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>79</v>
@@ -6813,10 +6810,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6839,16 +6836,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6898,16 +6895,16 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>102</v>
@@ -6933,10 +6930,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6962,13 +6959,13 @@
         <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6994,31 +6991,31 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z40" t="s" s="2">
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7053,10 +7050,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7079,16 +7076,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7138,16 +7135,16 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI41" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>102</v>
@@ -7165,7 +7162,7 @@
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>79</v>
@@ -7173,10 +7170,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7199,16 +7196,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7258,7 +7255,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7267,7 +7264,7 @@
         <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
@@ -7293,13 +7290,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>79</v>
@@ -7321,16 +7318,16 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7380,7 +7377,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7395,19 +7392,19 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7415,10 +7412,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7444,10 +7441,10 @@
         <v>92</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7459,7 +7456,7 @@
         <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>79</v>
@@ -7498,34 +7495,34 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI44" t="s" s="2">
+      <c r="AJ44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -7533,14 +7530,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7562,13 +7559,13 @@
         <v>137</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7609,7 +7606,7 @@
         <v>140</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
@@ -7618,7 +7615,7 @@
         <v>141</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7645,7 +7642,7 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7653,10 +7650,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7679,16 +7676,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7738,16 +7735,16 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>102</v>
@@ -7773,10 +7770,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7802,13 +7799,13 @@
         <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7834,31 +7831,31 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z47" t="s" s="2">
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7893,10 +7890,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7919,16 +7916,16 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7978,16 +7975,16 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>102</v>
@@ -8005,7 +8002,7 @@
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -8013,10 +8010,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8039,16 +8036,16 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8098,7 +8095,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -8107,7 +8104,7 @@
         <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
@@ -8133,10 +8130,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8159,13 +8156,13 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8216,7 +8213,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8234,27 +8231,27 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AO50" t="s" s="2">
+      <c r="AP50" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8277,13 +8274,13 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8334,7 +8331,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8352,16 +8349,16 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AO51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>79</v>
@@ -8369,10 +8366,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8395,16 +8392,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8454,7 +8451,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8481,7 +8478,7 @@
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8489,10 +8486,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8515,16 +8512,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8550,14 +8547,14 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8574,7 +8571,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8592,16 +8589,16 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>79</v>
@@ -8609,10 +8606,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8635,13 +8632,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8692,7 +8689,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8710,16 +8707,16 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8727,10 +8724,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8753,13 +8750,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8810,7 +8807,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8837,7 +8834,7 @@
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8845,10 +8842,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8871,13 +8868,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8928,7 +8925,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8952,10 +8949,10 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -8963,10 +8960,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8989,16 +8986,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9024,14 +9021,14 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9048,7 +9045,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9063,30 +9060,30 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AO57" t="s" s="2">
+      <c r="AP57" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>454</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9109,16 +9106,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9144,14 +9141,14 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9168,7 +9165,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9195,7 +9192,7 @@
         <v>79</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -9203,10 +9200,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9229,13 +9226,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9286,7 +9283,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9304,16 +9301,16 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -9321,10 +9318,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9347,13 +9344,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9404,7 +9401,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9419,19 +9416,19 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9439,10 +9436,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9465,17 +9462,17 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9524,7 +9521,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9551,7 +9548,7 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9559,10 +9556,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9585,13 +9582,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9642,7 +9639,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9669,7 +9666,7 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9677,10 +9674,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9703,16 +9700,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9762,7 +9759,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9789,7 +9786,7 @@
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>79</v>
@@ -9797,10 +9794,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9823,13 +9820,13 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9880,7 +9877,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9901,13 +9898,13 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -9915,10 +9912,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9941,13 +9938,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9998,34 +9995,34 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI65" t="s" s="2">
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>79</v>
@@ -10033,14 +10030,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10062,13 +10059,13 @@
         <v>137</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="N66" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10118,7 +10115,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10145,7 +10142,7 @@
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>79</v>
@@ -10153,14 +10150,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10182,16 +10179,16 @@
         <v>137</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="N67" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10240,7 +10237,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10275,10 +10272,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10301,16 +10298,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10360,7 +10357,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10387,7 +10384,7 @@
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10395,10 +10392,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10421,13 +10418,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10478,34 +10475,34 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI69" t="s" s="2">
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>79</v>
@@ -10513,14 +10510,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10542,13 +10539,13 @@
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10598,7 +10595,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10625,7 +10622,7 @@
         <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>79</v>
@@ -10633,14 +10630,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10662,16 +10659,16 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="N71" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O71" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10720,7 +10717,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10755,10 +10752,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10781,13 +10778,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10838,7 +10835,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10865,7 +10862,7 @@
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>79</v>
@@ -10873,10 +10870,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10899,13 +10896,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10956,7 +10953,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10983,7 +10980,7 @@
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>79</v>
@@ -10991,10 +10988,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11017,13 +11014,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11074,7 +11071,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11101,7 +11098,7 @@
         <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>79</v>
@@ -11109,10 +11106,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11135,19 +11132,19 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11196,7 +11193,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11217,13 +11214,13 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -11231,10 +11228,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11257,16 +11254,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11316,7 +11313,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11337,24 +11334,24 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO76" t="s" s="2">
+      <c r="AP76" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11377,13 +11374,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11434,7 +11431,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11455,24 +11452,24 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO77" t="s" s="2">
+      <c r="AP77" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11495,16 +11492,16 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11554,7 +11551,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11575,13 +11572,13 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11589,10 +11586,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11615,13 +11612,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11672,7 +11669,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11696,10 +11693,10 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>79</v>
@@ -11707,10 +11704,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11733,13 +11730,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11790,7 +11787,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11817,7 +11814,7 @@
         <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>79</v>
@@ -11825,10 +11822,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11851,13 +11848,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11884,11 +11881,11 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11906,7 +11903,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11933,7 +11930,7 @@
         <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>79</v>
@@ -11941,10 +11938,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11967,13 +11964,13 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12024,7 +12021,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12045,13 +12042,13 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -12059,10 +12056,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12085,13 +12082,13 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12142,34 +12139,34 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI83" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AG83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI83" t="s" s="2">
+      <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>79</v>
@@ -12177,14 +12174,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12206,13 +12203,13 @@
         <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12262,7 +12259,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12289,7 +12286,7 @@
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -12297,14 +12294,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12326,16 +12323,16 @@
         <v>137</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="N85" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12384,7 +12381,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12419,10 +12416,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12445,16 +12442,16 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12480,14 +12477,14 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="Y86" t="s" s="2">
+      <c r="Z86" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="Z86" t="s" s="2">
-        <v>581</v>
-      </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12504,7 +12501,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>90</v>
@@ -12525,24 +12522,24 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AP86" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>583</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12565,13 +12562,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12598,14 +12595,14 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12622,7 +12619,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12643,24 +12640,24 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO87" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AP87" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>590</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12683,16 +12680,16 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12742,7 +12739,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12760,16 +12757,16 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>79</v>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:59:04+00:00</t>
+    <t>2024-04-22T14:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:39:57+00:00</t>
+    <t>2024-04-22T15:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="668">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T15:15:59+00:00</t>
+    <t>2024-04-23T15:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -467,13 +467,13 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:oncofair-mr-prescription-datetime</t>
-  </si>
-  <si>
-    <t>oncofair-mr-prescription-datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-mr-prescription-datetime}
+    <t>MedicationRequest.extension:oncofair-mr-prescription-validationdate</t>
+  </si>
+  <si>
+    <t>oncofair-mr-prescription-validationdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-mr-prescription-validationdate}
 </t>
   </si>
   <si>
@@ -751,7 +751,7 @@
     <t>A plan or request that is fulfilled in whole or in part by this medication request.</t>
   </si>
   <si>
-    <t>Lien classe PROTOCOLE</t>
+    <t>PROTOCOLE</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -1019,6 +1019,222 @@
     <t>RXE-2-Give Code / RXO-1 Requested Give Code / RXC-2 Component Code</t>
   </si>
   <si>
+    <t>MedicationRequest.medication.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept</t>
+  </si>
+  <si>
+    <t>Reference to a concept (by class)</t>
+  </si>
+  <si>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>CodeableReference.concept</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>prescription</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod-1
+</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
+  </si>
+  <si>
     <t>MedicationRequest.subject</t>
   </si>
   <si>
@@ -1084,7 +1300,7 @@
     <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter."    If there is a need to link to episodes of care they will be handled with an extension.</t>
   </si>
   <si>
-    <t>Lien classe SEJOUR</t>
+    <t>SEJOUR</t>
   </si>
   <si>
     <t>Request.encounter</t>
@@ -1429,7 +1645,7 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
-    <t>Lien classe RENSEIGNEMENT COMPLEMENTAIRE</t>
+    <t>RENSEIGNEMENT COMPLEMENTAIRE</t>
   </si>
   <si>
     <t>Request.reason</t>
@@ -2204,7 +2420,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP88"/>
+  <dimension ref="A1:AP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2215,7 +2431,7 @@
   <cols>
     <col min="1" max="1" width="67.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="32.23828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="37.12109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5871,7 +6087,7 @@
         <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
@@ -5985,7 +6201,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
@@ -5997,20 +6213,18 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>319</v>
+        <v>92</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6059,49 +6273,49 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>326</v>
+        <v>171</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6120,15 +6334,17 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>329</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>330</v>
+        <v>173</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -6165,19 +6381,19 @@
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>328</v>
+        <v>176</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6189,7 +6405,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -6204,7 +6420,7 @@
         <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>332</v>
+        <v>171</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>79</v>
@@ -6212,10 +6428,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6223,32 +6439,30 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>334</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6297,7 +6511,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6312,30 +6526,30 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>341</v>
+        <v>135</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6346,10 +6560,10 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -6358,17 +6572,15 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>344</v>
+        <v>92</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>345</v>
+        <v>167</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6405,44 +6617,46 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>169</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -6450,23 +6664,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6478,16 +6690,16 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>353</v>
+        <v>137</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>346</v>
+        <v>174</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6525,19 +6737,19 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>176</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6549,22 +6761,22 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
@@ -6572,10 +6784,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6583,10 +6795,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6595,19 +6807,23 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>92</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6616,7 +6832,7 @@
         <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>79</v>
@@ -6655,19 +6871,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6682,29 +6898,29 @@
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>171</v>
+        <v>333</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6716,17 +6932,15 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6763,31 +6977,31 @@
         <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6810,21 +7024,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6833,19 +7047,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
+        <v>173</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>362</v>
+        <v>174</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6883,31 +7097,31 @@
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6922,7 +7136,7 @@
         <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -6930,10 +7144,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6959,15 +7173,17 @@
         <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6991,13 +7207,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -7015,7 +7231,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7042,18 +7258,18 @@
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7076,16 +7292,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7135,7 +7351,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7144,7 +7360,7 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>102</v>
@@ -7162,18 +7378,18 @@
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7196,18 +7412,18 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7216,7 +7432,7 @@
         <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>79</v>
@@ -7255,7 +7471,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7264,7 +7480,7 @@
         <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
@@ -7282,22 +7498,20 @@
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7315,21 +7529,21 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>207</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7377,45 +7591,45 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7423,7 +7637,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>90</v>
@@ -7435,19 +7649,23 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>92</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>167</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7456,7 +7674,7 @@
         <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>79</v>
@@ -7495,7 +7713,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>169</v>
+        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7504,10 +7722,10 @@
         <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7522,29 +7740,29 @@
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>171</v>
+        <v>374</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7553,21 +7771,23 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7603,31 +7823,31 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>176</v>
+        <v>381</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7642,18 +7862,18 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>171</v>
+        <v>382</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7676,17 +7896,15 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>207</v>
+        <v>385</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7735,7 +7953,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7744,7 +7962,7 @@
         <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>102</v>
@@ -7770,10 +7988,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7781,7 +7999,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>90</v>
@@ -7796,16 +8014,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7831,13 +8049,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7855,10 +8073,10 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>90</v>
@@ -7873,27 +8091,27 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>135</v>
+        <v>397</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7904,7 +8122,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7913,20 +8131,18 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7975,16 +8191,16 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>102</v>
@@ -8002,7 +8218,7 @@
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>79</v>
@@ -8010,10 +8226,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8021,31 +8237,31 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>207</v>
+        <v>405</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8095,7 +8311,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -8104,36 +8320,36 @@
         <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>135</v>
+        <v>412</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8144,27 +8360,29 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>271</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -8201,25 +8419,23 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
@@ -8231,29 +8447,31 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8271,18 +8489,20 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -8331,13 +8551,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -8346,19 +8566,19 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>326</v>
+        <v>421</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>79</v>
@@ -8366,10 +8586,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8377,7 +8597,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
@@ -8389,20 +8609,18 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>301</v>
+        <v>92</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
+        <v>167</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8412,7 +8630,7 @@
         <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>79</v>
@@ -8451,7 +8669,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>411</v>
+        <v>169</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8460,10 +8678,10 @@
         <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8478,7 +8696,7 @@
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>415</v>
+        <v>171</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8486,21 +8704,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8509,19 +8727,19 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>417</v>
+        <v>173</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>418</v>
+        <v>174</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>419</v>
+        <v>152</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8547,49 +8765,49 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>416</v>
+        <v>176</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8598,7 +8816,7 @@
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>423</v>
+        <v>171</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>79</v>
@@ -8606,10 +8824,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8620,7 +8838,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8629,18 +8847,20 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>425</v>
+        <v>207</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8689,16 +8909,16 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>102</v>
@@ -8707,16 +8927,16 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8724,10 +8944,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8738,7 +8958,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8747,18 +8967,20 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>432</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8783,13 +9005,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8807,13 +9029,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8834,7 +9056,7 @@
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8842,10 +9064,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8865,18 +9087,20 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>436</v>
+        <v>156</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8925,7 +9149,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8934,7 +9158,7 @@
         <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>102</v>
@@ -8949,10 +9173,10 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -8960,10 +9184,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8974,28 +9198,28 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>207</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9021,13 +9245,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -9045,47 +9269,49 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>452</v>
+        <v>135</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9106,16 +9332,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9141,13 +9367,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9165,13 +9391,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -9180,19 +9406,19 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -9200,10 +9426,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9211,10 +9437,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9226,13 +9452,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>462</v>
+        <v>92</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>463</v>
+        <v>167</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>464</v>
+        <v>168</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9244,7 +9470,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -9283,25 +9509,25 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>461</v>
+        <v>169</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9310,7 +9536,7 @@
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>466</v>
+        <v>171</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -9318,14 +9544,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9335,7 +9561,7 @@
         <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>79</v>
@@ -9344,15 +9570,17 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>468</v>
+        <v>137</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>469</v>
+        <v>173</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9389,19 +9617,19 @@
         <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>467</v>
+        <v>176</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9413,22 +9641,22 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>474</v>
+        <v>171</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9436,10 +9664,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9459,21 +9687,21 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>476</v>
+        <v>207</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9521,7 +9749,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9530,7 +9758,7 @@
         <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>102</v>
@@ -9548,7 +9776,7 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>480</v>
+        <v>135</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9556,10 +9784,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9579,18 +9807,20 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9615,13 +9845,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9639,7 +9869,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9666,7 +9896,7 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>484</v>
+        <v>135</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9674,10 +9904,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9688,7 +9918,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9697,19 +9927,19 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>486</v>
+        <v>156</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9759,16 +9989,16 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>102</v>
@@ -9786,7 +10016,7 @@
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>79</v>
@@ -9794,10 +10024,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9817,18 +10047,20 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>492</v>
+        <v>207</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9877,7 +10109,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9886,7 +10118,7 @@
         <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>102</v>
@@ -9898,13 +10130,13 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>496</v>
+        <v>135</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -9912,10 +10144,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9935,16 +10167,16 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>167</v>
+        <v>469</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>168</v>
+        <v>470</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9995,7 +10227,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>169</v>
+        <v>468</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10004,47 +10236,47 @@
         <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>171</v>
+        <v>474</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10053,20 +10285,18 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>137</v>
+        <v>477</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>173</v>
+        <v>478</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10115,34 +10345,34 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>79</v>
@@ -10150,46 +10380,44 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10237,19 +10465,19 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10264,7 +10492,7 @@
         <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>135</v>
+        <v>486</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>79</v>
@@ -10272,10 +10500,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10295,19 +10523,19 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10333,13 +10561,13 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10357,7 +10585,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10375,7 +10603,7 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10384,7 +10612,7 @@
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10392,10 +10620,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10406,7 +10634,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10418,13 +10646,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>207</v>
+        <v>496</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>167</v>
+        <v>497</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>168</v>
+        <v>498</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10475,34 +10703,34 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>169</v>
+        <v>495</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>171</v>
+        <v>501</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>79</v>
@@ -10510,14 +10738,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10536,17 +10764,15 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>137</v>
+        <v>503</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>173</v>
+        <v>504</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10595,7 +10821,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>176</v>
+        <v>502</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10607,7 +10833,7 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10622,7 +10848,7 @@
         <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>171</v>
+        <v>501</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>79</v>
@@ -10630,46 +10856,42 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>137</v>
+        <v>507</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10717,19 +10939,19 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10741,10 +10963,10 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>135</v>
+        <v>511</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>79</v>
@@ -10766,10 +10988,10 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>79</v>
@@ -10786,7 +11008,9 @@
       <c r="M72" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10811,13 +11035,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10841,7 +11065,7 @@
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
@@ -10850,30 +11074,30 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10896,15 +11120,17 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>518</v>
+        <v>187</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10929,13 +11155,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10953,7 +11179,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10980,7 +11206,7 @@
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>79</v>
@@ -10988,10 +11214,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11002,7 +11228,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -11014,13 +11240,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11071,13 +11297,13 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -11089,7 +11315,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -11098,7 +11324,7 @@
         <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>79</v>
@@ -11106,10 +11332,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11120,10 +11346,10 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>79</v>
@@ -11132,20 +11358,16 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>217</v>
+        <v>539</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11193,13 +11415,13 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -11208,19 +11430,19 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -11228,10 +11450,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11254,18 +11476,18 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11313,7 +11535,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11334,24 +11556,24 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11374,13 +11596,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>513</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11431,7 +11653,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11452,24 +11674,24 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11480,7 +11702,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11492,16 +11714,16 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11551,13 +11773,13 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
@@ -11572,13 +11794,13 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11586,10 +11808,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11612,13 +11834,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>224</v>
+        <v>563</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11669,7 +11891,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11690,13 +11912,13 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>79</v>
@@ -11704,10 +11926,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11718,7 +11940,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11730,13 +11952,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>468</v>
+        <v>207</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>557</v>
+        <v>167</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>558</v>
+        <v>168</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11787,19 +12009,19 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>556</v>
+        <v>169</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11814,7 +12036,7 @@
         <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>559</v>
+        <v>171</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>79</v>
@@ -11822,21 +12044,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11848,15 +12070,17 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>561</v>
+        <v>173</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11881,11 +12105,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Y81" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z81" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11903,19 +12129,19 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>560</v>
+        <v>176</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11930,7 +12156,7 @@
         <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>564</v>
+        <v>171</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>79</v>
@@ -11938,42 +12164,46 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>492</v>
+        <v>137</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12021,19 +12251,19 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -12042,13 +12272,13 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>569</v>
+        <v>135</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -12056,10 +12286,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12082,15 +12312,17 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>207</v>
+        <v>563</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>167</v>
+        <v>576</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12139,7 +12371,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>169</v>
+        <v>575</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12148,10 +12380,10 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -12166,7 +12398,7 @@
         <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>171</v>
+        <v>579</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>79</v>
@@ -12174,21 +12406,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -12200,17 +12432,15 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12259,19 +12489,19 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -12294,14 +12524,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>500</v>
+        <v>149</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12314,26 +12544,24 @@
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>501</v>
+        <v>173</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>502</v>
+        <v>174</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O85" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12381,7 +12609,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>503</v>
+        <v>176</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12408,7 +12636,7 @@
         <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>79</v>
@@ -12416,44 +12644,46 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>574</v>
+        <v>137</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12477,13 +12707,13 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>579</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
@@ -12501,19 +12731,19 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
@@ -12522,16 +12752,16 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>581</v>
+        <v>135</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" hidden="true">
@@ -12562,13 +12792,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>187</v>
+        <v>584</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12595,13 +12825,13 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -12640,24 +12870,24 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>589</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12668,7 +12898,7 @@
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12680,17 +12910,15 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>594</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -12739,13 +12967,13 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
@@ -12757,23 +12985,1809 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO88" t="s" s="2">
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AP88" t="s" s="2">
+      <c r="B90" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y96" s="2"/>
+      <c r="Z96" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AP103" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP88">
+  <autoFilter ref="A1:AP103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12783,7 +14797,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T15:10:46+00:00</t>
+    <t>2024-04-24T09:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
